--- a/biology/Botanique/Castets_(cépage)/Castets_(cépage).xlsx
+++ b/biology/Botanique/Castets_(cépage)/Castets_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Castets_(c%C3%A9page)</t>
+          <t>Castets_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Castets N[1],[N 1] est un cépage de cuve noir français.
+Le Castets N,[N 1] est un cépage de cuve noir français.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Castets_(c%C3%A9page)</t>
+          <t>Castets_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il appartient à la famille des Carmenets. Découvert ou introduit en Gironde, du côté de Saint-Macaire vers 1870 par Nicouleau, il est diffusé par un certain Castets[2]. Il va être planté en parcelle dans le vignoble de Bordeaux et en mélange avec le fer servadou (confusion entre les deux cépages) dans les autres vignobles du sud-ouest.
-Il n'a été diffusé que dans la partie nord de la Garonne, en Dordogne, Lot-et-Garonne, Lot, Tarn-et-Garonne, Tarn et Aveyron. Il est aujourd'hui en voie de disparition. Entre 1958 et 1994, il est passé de 57 à 1 ha[3]. Il n'est plus classé recommandé que dans l'Aveyron.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il appartient à la famille des Carmenets. Découvert ou introduit en Gironde, du côté de Saint-Macaire vers 1870 par Nicouleau, il est diffusé par un certain Castets. Il va être planté en parcelle dans le vignoble de Bordeaux et en mélange avec le fer servadou (confusion entre les deux cépages) dans les autres vignobles du sud-ouest.
+Il n'a été diffusé que dans la partie nord de la Garonne, en Dordogne, Lot-et-Garonne, Lot, Tarn-et-Garonne, Tarn et Aveyron. Il est aujourd'hui en voie de disparition. Entre 1958 et 1994, il est passé de 57 à 1 ha. Il n'est plus classé recommandé que dans l'Aveyron.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Castets_(c%C3%A9page)</t>
+          <t>Castets_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom de M. Castets qui l'a multiplié et diffusé.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Castets_(c%C3%A9page)</t>
+          <t>Castets_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bourgeonnement cotonneux à pointe rosée.
 Jeunes feuilles bronzées.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Castets_(c%C3%A9page)</t>
+          <t>Castets_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Culturales: Vigoureux mais peu fertile, il nécessite une taille longue. Son port est dressé.
 Sensibilité: Il craint peu la pourriture grise et le mildiou, beaucoup plus l'oïdium.
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Castets_(c%C3%A9page)</t>
+          <t>Castets_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,9 +659,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le castets est également connu sous les noms suivants[4] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le castets est également connu sous les noms suivants : 
 Castet
 Engrunat (Gers)[N 2]
 Gros Machouquet
